--- a/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
+++ b/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4300C856-0239-414B-9825-92F672EBCBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359AD2A4-5751-4AFB-9B68-9AFF08467025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Остаток ( ОБЩИЙ)" sheetId="4" r:id="rId1"/>
@@ -1459,6 +1459,30 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,34 +1498,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3748,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C54E8-0330-4583-A52C-AA843E9A4C69}">
   <dimension ref="A1:AL160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,12 +3856,12 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="J21" s="48" t="s">
@@ -3872,163 +3872,163 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="106" t="s">
+      <c r="I23" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="106" t="s">
+      <c r="J23" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="106" t="s">
+      <c r="K23" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="108" t="s">
+      <c r="L23" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="108" t="s">
+      <c r="M23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="108" t="s">
+      <c r="O23" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="108" t="s">
+      <c r="P23" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="109" t="s">
+      <c r="Q23" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="109" t="s">
+      <c r="R23" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="109" t="s">
+      <c r="S23" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="109" t="s">
+      <c r="T23" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="110" t="s">
+      <c r="U23" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="110" t="s">
+      <c r="V23" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="W23" s="110" t="s">
+      <c r="W23" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="113" t="s">
+      <c r="X23" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="113" t="s">
+      <c r="Y23" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="113" t="s">
+      <c r="Z23" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="106" t="s">
+      <c r="AA23" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="106" t="s">
+      <c r="AB23" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" s="113" t="s">
+      <c r="AC23" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="113" t="s">
+      <c r="AD23" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="AE23" s="106" t="s">
+      <c r="AE23" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="AF23" s="106" t="s">
+      <c r="AF23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="107" t="s">
+      <c r="AG23" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="105" t="s">
+      <c r="AH23" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="105" t="s">
+      <c r="AI23" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="105" t="s">
+      <c r="AJ23" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="105" t="s">
+      <c r="AK23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="102"/>
+      <c r="AL23" s="110"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H24" s="114"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="105"/>
-      <c r="AI24" s="105"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="103"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="111"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H25" s="114"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="104"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="112"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
@@ -4047,17 +4047,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="111" t="s">
+      <c r="X26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="111" t="s">
+      <c r="AC26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="111"/>
+      <c r="AD26" s="105"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="55"/>
@@ -4106,14 +4106,14 @@
       </c>
     </row>
     <row r="29" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
       <c r="AG29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4127,41 +4127,41 @@
       <c r="F30" s="57"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="102" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="115"/>
+      <c r="E54" s="102"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="115"/>
+      <c r="E55" s="102"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="115"/>
+      <c r="E56" s="102"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="115"/>
+      <c r="E57" s="102"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="115"/>
+      <c r="E58" s="102"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="115"/>
+      <c r="E59" s="102"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="115"/>
+      <c r="E60" s="102"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="115"/>
+      <c r="E61" s="102"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="115" t="s">
+      <c r="E64" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="115"/>
+      <c r="E65" s="102"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -4170,7 +4170,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="115" t="s">
+      <c r="E67" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="115"/>
+      <c r="E68" s="102"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
@@ -4196,12 +4196,12 @@
       <c r="D79" s="44"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="115" t="s">
+      <c r="E106" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="115"/>
+      <c r="E107" s="102"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -4232,7 +4232,7 @@
       <c r="D130" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="112" t="s">
+      <c r="E133" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="47" t="s">
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="112"/>
+      <c r="E134" s="101"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="112" t="s">
+      <c r="E136" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F136" s="47" t="s">
@@ -4251,14 +4251,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="112"/>
+      <c r="E137" s="101"/>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F138" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="112" t="s">
+      <c r="E140" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -4266,15 +4266,15 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="112"/>
+      <c r="E141" s="101"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="115" t="s">
+      <c r="E143" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="115"/>
+      <c r="E144" s="102"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="41"/>
-      <c r="E147" s="115" t="s">
+      <c r="E147" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="115"/>
+      <c r="E148" s="102"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
@@ -4364,18 +4364,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AL23:AL25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AJ23:AJ25"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="AC23:AC25"/>
@@ -4392,22 +4396,18 @@
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="L23:L25"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AL23:AL25"/>
-    <mergeCell ref="AI23:AI25"/>
-    <mergeCell ref="AJ23:AJ25"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="AF23:AF25"/>
-    <mergeCell ref="AG23:AG25"/>
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5193,21 +5193,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
+++ b/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359AD2A4-5751-4AFB-9B68-9AFF08467025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF794D-5051-4CE5-AD4F-16130278FAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,49 +1459,49 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3748,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C54E8-0330-4583-A52C-AA843E9A4C69}">
   <dimension ref="A1:AL160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,12 +3856,12 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="J21" s="48" t="s">
@@ -3872,163 +3872,163 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="107" t="s">
+      <c r="I23" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="J23" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="104" t="s">
+      <c r="L23" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="104" t="s">
+      <c r="M23" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="104" t="s">
+      <c r="N23" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="104" t="s">
+      <c r="O23" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="104" t="s">
+      <c r="P23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="103" t="s">
+      <c r="Q23" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="103" t="s">
+      <c r="R23" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="103" t="s">
+      <c r="S23" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="103" t="s">
+      <c r="T23" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="115" t="s">
+      <c r="U23" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="115" t="s">
+      <c r="V23" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="W23" s="115" t="s">
+      <c r="W23" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="106" t="s">
+      <c r="X23" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="106" t="s">
+      <c r="Y23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="106" t="s">
+      <c r="Z23" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="107" t="s">
+      <c r="AA23" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="107" t="s">
+      <c r="AB23" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" s="106" t="s">
+      <c r="AC23" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="106" t="s">
+      <c r="AD23" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="AE23" s="107" t="s">
+      <c r="AE23" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="AF23" s="107" t="s">
+      <c r="AF23" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="114" t="s">
+      <c r="AG23" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="113" t="s">
+      <c r="AH23" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="113" t="s">
+      <c r="AI23" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="113" t="s">
+      <c r="AJ23" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="113" t="s">
+      <c r="AK23" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="110"/>
+      <c r="AL23" s="102"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H24" s="108"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="113"/>
-      <c r="AJ24" s="113"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="111"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="103"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H25" s="108"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="113"/>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="112"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="104"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
@@ -4047,17 +4047,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="105" t="s">
+      <c r="X26" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="105" t="s">
+      <c r="AC26" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="105"/>
+      <c r="AD26" s="111"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="55"/>
@@ -4106,14 +4106,14 @@
       </c>
     </row>
     <row r="29" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
       <c r="AG29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4127,41 +4127,41 @@
       <c r="F30" s="57"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="102" t="s">
+      <c r="E53" s="115" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="102"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="102"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="102"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="102"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="102"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="102"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="102"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="102"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="102" t="s">
+      <c r="E64" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="102"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -4170,7 +4170,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="102" t="s">
+      <c r="E67" s="115" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="102"/>
+      <c r="E68" s="115"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
@@ -4196,12 +4196,12 @@
       <c r="D79" s="44"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="102" t="s">
+      <c r="E106" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="102"/>
+      <c r="E107" s="115"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -4232,7 +4232,7 @@
       <c r="D130" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="101" t="s">
+      <c r="E133" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="47" t="s">
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="101"/>
+      <c r="E134" s="112"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="101" t="s">
+      <c r="E136" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F136" s="47" t="s">
@@ -4251,14 +4251,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="101"/>
+      <c r="E137" s="112"/>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F138" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="101" t="s">
+      <c r="E140" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -4266,15 +4266,15 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="101"/>
+      <c r="E141" s="112"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="102" t="s">
+      <c r="E143" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="102"/>
+      <c r="E144" s="115"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="41"/>
-      <c r="E147" s="102" t="s">
+      <c r="E147" s="115" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="102"/>
+      <c r="E148" s="115"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
@@ -4364,6 +4364,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="AA23:AA25"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="AL23:AL25"/>
     <mergeCell ref="AI23:AI25"/>
@@ -4380,34 +4408,6 @@
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="W23:W25"/>
     <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AD23:AD25"/>
-    <mergeCell ref="AE23:AE25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Z23:Z25"/>
-    <mergeCell ref="AA23:AA25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5193,21 +5193,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
+++ b/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF794D-5051-4CE5-AD4F-16130278FAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB99E6B-CE68-4EBB-A742-8C4FC18D7CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,6 +1459,30 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,34 +1498,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3749,7 +3749,7 @@
   <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="K10" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,12 +3856,12 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="J21" s="48" t="s">
@@ -3872,163 +3872,163 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="106" t="s">
+      <c r="I23" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="106" t="s">
+      <c r="J23" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="106" t="s">
+      <c r="K23" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="108" t="s">
+      <c r="L23" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="108" t="s">
+      <c r="M23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="108" t="s">
+      <c r="O23" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="108" t="s">
+      <c r="P23" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="109" t="s">
+      <c r="Q23" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="109" t="s">
+      <c r="R23" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="109" t="s">
+      <c r="S23" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="109" t="s">
+      <c r="T23" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="110" t="s">
+      <c r="U23" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="110" t="s">
+      <c r="V23" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="W23" s="110" t="s">
+      <c r="W23" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="113" t="s">
+      <c r="X23" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="113" t="s">
+      <c r="Y23" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="113" t="s">
+      <c r="Z23" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="106" t="s">
+      <c r="AA23" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="106" t="s">
+      <c r="AB23" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" s="113" t="s">
+      <c r="AC23" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="113" t="s">
+      <c r="AD23" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="AE23" s="106" t="s">
+      <c r="AE23" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="AF23" s="106" t="s">
+      <c r="AF23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="107" t="s">
+      <c r="AG23" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="105" t="s">
+      <c r="AH23" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="105" t="s">
+      <c r="AI23" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="105" t="s">
+      <c r="AJ23" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="105" t="s">
+      <c r="AK23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="102"/>
+      <c r="AL23" s="110"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H24" s="114"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="105"/>
-      <c r="AI24" s="105"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="103"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="111"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H25" s="114"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="104"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="112"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
@@ -4047,17 +4047,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="111" t="s">
+      <c r="X26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="111" t="s">
+      <c r="AC26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="111"/>
+      <c r="AD26" s="105"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="55"/>
@@ -4106,14 +4106,14 @@
       </c>
     </row>
     <row r="29" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
       <c r="AG29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4127,41 +4127,41 @@
       <c r="F30" s="57"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="102" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="115"/>
+      <c r="E54" s="102"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="115"/>
+      <c r="E55" s="102"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="115"/>
+      <c r="E56" s="102"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="115"/>
+      <c r="E57" s="102"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="115"/>
+      <c r="E58" s="102"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="115"/>
+      <c r="E59" s="102"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="115"/>
+      <c r="E60" s="102"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="115"/>
+      <c r="E61" s="102"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="115" t="s">
+      <c r="E64" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="115"/>
+      <c r="E65" s="102"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -4170,7 +4170,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="115" t="s">
+      <c r="E67" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="115"/>
+      <c r="E68" s="102"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
@@ -4196,12 +4196,12 @@
       <c r="D79" s="44"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="115" t="s">
+      <c r="E106" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="115"/>
+      <c r="E107" s="102"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -4232,7 +4232,7 @@
       <c r="D130" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="112" t="s">
+      <c r="E133" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="47" t="s">
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="112"/>
+      <c r="E134" s="101"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="112" t="s">
+      <c r="E136" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F136" s="47" t="s">
@@ -4251,14 +4251,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="112"/>
+      <c r="E137" s="101"/>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F138" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="112" t="s">
+      <c r="E140" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -4266,15 +4266,15 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="112"/>
+      <c r="E141" s="101"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="115" t="s">
+      <c r="E143" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="115"/>
+      <c r="E144" s="102"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="41"/>
-      <c r="E147" s="115" t="s">
+      <c r="E147" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="115"/>
+      <c r="E148" s="102"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
@@ -4364,18 +4364,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AL23:AL25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AJ23:AJ25"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="AC23:AC25"/>
@@ -4392,22 +4396,18 @@
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="L23:L25"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AL23:AL25"/>
-    <mergeCell ref="AI23:AI25"/>
-    <mergeCell ref="AJ23:AJ25"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="AF23:AF25"/>
-    <mergeCell ref="AG23:AG25"/>
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5193,21 +5193,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
+++ b/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB99E6B-CE68-4EBB-A742-8C4FC18D7CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15A7DF7-53E0-4D35-9641-262BF4AD1325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,49 +1459,49 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3748,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C54E8-0330-4583-A52C-AA843E9A4C69}">
   <dimension ref="A1:AL160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K10" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,12 +3856,12 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="J21" s="48" t="s">
@@ -3872,163 +3872,163 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="107" t="s">
+      <c r="I23" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="J23" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="104" t="s">
+      <c r="L23" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="104" t="s">
+      <c r="M23" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="104" t="s">
+      <c r="N23" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="104" t="s">
+      <c r="O23" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="104" t="s">
+      <c r="P23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="103" t="s">
+      <c r="Q23" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="103" t="s">
+      <c r="R23" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="103" t="s">
+      <c r="S23" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="103" t="s">
+      <c r="T23" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="115" t="s">
+      <c r="U23" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="115" t="s">
+      <c r="V23" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="W23" s="115" t="s">
+      <c r="W23" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="106" t="s">
+      <c r="X23" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="106" t="s">
+      <c r="Y23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="106" t="s">
+      <c r="Z23" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="107" t="s">
+      <c r="AA23" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="107" t="s">
+      <c r="AB23" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" s="106" t="s">
+      <c r="AC23" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="106" t="s">
+      <c r="AD23" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="AE23" s="107" t="s">
+      <c r="AE23" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="AF23" s="107" t="s">
+      <c r="AF23" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="114" t="s">
+      <c r="AG23" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="113" t="s">
+      <c r="AH23" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="113" t="s">
+      <c r="AI23" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="113" t="s">
+      <c r="AJ23" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="113" t="s">
+      <c r="AK23" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="110"/>
+      <c r="AL23" s="102"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H24" s="108"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="113"/>
-      <c r="AJ24" s="113"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="111"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="103"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H25" s="108"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="113"/>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="112"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="104"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
@@ -4047,17 +4047,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="105" t="s">
+      <c r="X26" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="105" t="s">
+      <c r="AC26" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="105"/>
+      <c r="AD26" s="111"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="55"/>
@@ -4106,14 +4106,14 @@
       </c>
     </row>
     <row r="29" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
       <c r="AG29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4127,41 +4127,41 @@
       <c r="F30" s="57"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="102" t="s">
+      <c r="E53" s="115" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="102"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="102"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="102"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="102"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="102"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="102"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="102"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="102"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="102" t="s">
+      <c r="E64" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="102"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -4170,7 +4170,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="102" t="s">
+      <c r="E67" s="115" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="102"/>
+      <c r="E68" s="115"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
@@ -4196,12 +4196,12 @@
       <c r="D79" s="44"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="102" t="s">
+      <c r="E106" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="102"/>
+      <c r="E107" s="115"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -4232,7 +4232,7 @@
       <c r="D130" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="101" t="s">
+      <c r="E133" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="47" t="s">
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="101"/>
+      <c r="E134" s="112"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="101" t="s">
+      <c r="E136" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F136" s="47" t="s">
@@ -4251,14 +4251,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="101"/>
+      <c r="E137" s="112"/>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F138" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="101" t="s">
+      <c r="E140" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -4266,15 +4266,15 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="101"/>
+      <c r="E141" s="112"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="102" t="s">
+      <c r="E143" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="102"/>
+      <c r="E144" s="115"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="41"/>
-      <c r="E147" s="102" t="s">
+      <c r="E147" s="115" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="102"/>
+      <c r="E148" s="115"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
@@ -4364,6 +4364,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="AA23:AA25"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="AL23:AL25"/>
     <mergeCell ref="AI23:AI25"/>
@@ -4380,34 +4408,6 @@
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="W23:W25"/>
     <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AD23:AD25"/>
-    <mergeCell ref="AE23:AE25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Z23:Z25"/>
-    <mergeCell ref="AA23:AA25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5193,21 +5193,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
+++ b/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15A7DF7-53E0-4D35-9641-262BF4AD1325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6EFA5C-8FB3-46CE-8595-A5AE723FEDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Остаток ( ОБЩИЙ)" sheetId="4" r:id="rId1"/>
@@ -1459,6 +1459,30 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,34 +1498,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3748,7 +3748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C54E8-0330-4583-A52C-AA843E9A4C69}">
   <dimension ref="A1:AL160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -3856,12 +3856,12 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="J21" s="48" t="s">
@@ -3872,163 +3872,163 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="106" t="s">
+      <c r="I23" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="106" t="s">
+      <c r="J23" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="106" t="s">
+      <c r="K23" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="108" t="s">
+      <c r="L23" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="108" t="s">
+      <c r="M23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="108" t="s">
+      <c r="O23" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="108" t="s">
+      <c r="P23" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="109" t="s">
+      <c r="Q23" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="109" t="s">
+      <c r="R23" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="109" t="s">
+      <c r="S23" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="109" t="s">
+      <c r="T23" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="110" t="s">
+      <c r="U23" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="110" t="s">
+      <c r="V23" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="W23" s="110" t="s">
+      <c r="W23" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="113" t="s">
+      <c r="X23" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="113" t="s">
+      <c r="Y23" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="113" t="s">
+      <c r="Z23" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="106" t="s">
+      <c r="AA23" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="106" t="s">
+      <c r="AB23" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" s="113" t="s">
+      <c r="AC23" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="113" t="s">
+      <c r="AD23" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="AE23" s="106" t="s">
+      <c r="AE23" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="AF23" s="106" t="s">
+      <c r="AF23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="107" t="s">
+      <c r="AG23" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="105" t="s">
+      <c r="AH23" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="105" t="s">
+      <c r="AI23" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="105" t="s">
+      <c r="AJ23" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="105" t="s">
+      <c r="AK23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="102"/>
+      <c r="AL23" s="110"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H24" s="114"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="105"/>
-      <c r="AI24" s="105"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="103"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="111"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H25" s="114"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="104"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="112"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
@@ -4047,17 +4047,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="111" t="s">
+      <c r="X26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="111" t="s">
+      <c r="AC26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="111"/>
+      <c r="AD26" s="105"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="55"/>
@@ -4106,14 +4106,14 @@
       </c>
     </row>
     <row r="29" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
       <c r="AG29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4127,41 +4127,41 @@
       <c r="F30" s="57"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="102" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="115"/>
+      <c r="E54" s="102"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="115"/>
+      <c r="E55" s="102"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="115"/>
+      <c r="E56" s="102"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="115"/>
+      <c r="E57" s="102"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="115"/>
+      <c r="E58" s="102"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="115"/>
+      <c r="E59" s="102"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="115"/>
+      <c r="E60" s="102"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="115"/>
+      <c r="E61" s="102"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="115" t="s">
+      <c r="E64" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="115"/>
+      <c r="E65" s="102"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -4170,7 +4170,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="115" t="s">
+      <c r="E67" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="115"/>
+      <c r="E68" s="102"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
@@ -4196,12 +4196,12 @@
       <c r="D79" s="44"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="115" t="s">
+      <c r="E106" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="115"/>
+      <c r="E107" s="102"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -4232,7 +4232,7 @@
       <c r="D130" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="112" t="s">
+      <c r="E133" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="47" t="s">
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="112"/>
+      <c r="E134" s="101"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="112" t="s">
+      <c r="E136" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F136" s="47" t="s">
@@ -4251,14 +4251,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="112"/>
+      <c r="E137" s="101"/>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F138" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="112" t="s">
+      <c r="E140" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -4266,15 +4266,15 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="112"/>
+      <c r="E141" s="101"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="115" t="s">
+      <c r="E143" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="115"/>
+      <c r="E144" s="102"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="41"/>
-      <c r="E147" s="115" t="s">
+      <c r="E147" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="115"/>
+      <c r="E148" s="102"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
@@ -4364,18 +4364,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AL23:AL25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AJ23:AJ25"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="AC23:AC25"/>
@@ -4392,22 +4396,18 @@
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="L23:L25"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AL23:AL25"/>
-    <mergeCell ref="AI23:AI25"/>
-    <mergeCell ref="AJ23:AJ25"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="AF23:AF25"/>
-    <mergeCell ref="AG23:AG25"/>
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4419,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,21 +5193,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5219,7 +5219,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,9 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A81BA5-65AF-43A2-99F6-F44395002ABD}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:J28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6514,9 +6512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD08CA0-456C-4578-92E9-8FA2D19E8B0E}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6936,7 +6932,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7266,9 +7262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E2DA9C-B940-4276-AB48-5B361BFD8958}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
+++ b/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6EFA5C-8FB3-46CE-8595-A5AE723FEDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F2439-B3E4-41CE-BF21-921D7CB1F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Остаток ( ОБЩИЙ)" sheetId="4" r:id="rId1"/>
@@ -1459,49 +1459,49 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3856,12 +3856,12 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="J21" s="48" t="s">
@@ -3872,163 +3872,163 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="107" t="s">
+      <c r="I23" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="J23" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="104" t="s">
+      <c r="L23" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="104" t="s">
+      <c r="M23" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="104" t="s">
+      <c r="N23" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="104" t="s">
+      <c r="O23" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="104" t="s">
+      <c r="P23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="103" t="s">
+      <c r="Q23" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="103" t="s">
+      <c r="R23" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="103" t="s">
+      <c r="S23" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="103" t="s">
+      <c r="T23" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="115" t="s">
+      <c r="U23" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="115" t="s">
+      <c r="V23" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="W23" s="115" t="s">
+      <c r="W23" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="106" t="s">
+      <c r="X23" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="106" t="s">
+      <c r="Y23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="106" t="s">
+      <c r="Z23" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="107" t="s">
+      <c r="AA23" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="107" t="s">
+      <c r="AB23" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" s="106" t="s">
+      <c r="AC23" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="106" t="s">
+      <c r="AD23" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="AE23" s="107" t="s">
+      <c r="AE23" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="AF23" s="107" t="s">
+      <c r="AF23" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="114" t="s">
+      <c r="AG23" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="113" t="s">
+      <c r="AH23" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="113" t="s">
+      <c r="AI23" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="113" t="s">
+      <c r="AJ23" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="113" t="s">
+      <c r="AK23" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="110"/>
+      <c r="AL23" s="102"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H24" s="108"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="113"/>
-      <c r="AJ24" s="113"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="111"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="103"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H25" s="108"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="113"/>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="112"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="104"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
@@ -4047,17 +4047,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="105" t="s">
+      <c r="X26" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="105" t="s">
+      <c r="AC26" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="105"/>
+      <c r="AD26" s="111"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="55"/>
@@ -4106,14 +4106,14 @@
       </c>
     </row>
     <row r="29" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
       <c r="AG29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4127,41 +4127,41 @@
       <c r="F30" s="57"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="102" t="s">
+      <c r="E53" s="115" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="102"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="102"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="102"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="102"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="102"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="102"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="102"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="102"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="102" t="s">
+      <c r="E64" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="102"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -4170,7 +4170,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="102" t="s">
+      <c r="E67" s="115" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="102"/>
+      <c r="E68" s="115"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
@@ -4196,12 +4196,12 @@
       <c r="D79" s="44"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="102" t="s">
+      <c r="E106" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="102"/>
+      <c r="E107" s="115"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -4232,7 +4232,7 @@
       <c r="D130" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="101" t="s">
+      <c r="E133" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="47" t="s">
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="101"/>
+      <c r="E134" s="112"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="101" t="s">
+      <c r="E136" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F136" s="47" t="s">
@@ -4251,14 +4251,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="101"/>
+      <c r="E137" s="112"/>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F138" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="101" t="s">
+      <c r="E140" s="112" t="s">
         <v>57</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -4266,15 +4266,15 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="101"/>
+      <c r="E141" s="112"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="102" t="s">
+      <c r="E143" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="102"/>
+      <c r="E144" s="115"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="41"/>
-      <c r="E147" s="102" t="s">
+      <c r="E147" s="115" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="102"/>
+      <c r="E148" s="115"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
@@ -4364,6 +4364,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="AE23:AE25"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="Y23:Y25"/>
+    <mergeCell ref="Z23:Z25"/>
+    <mergeCell ref="AA23:AA25"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AB23:AB25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="AL23:AL25"/>
     <mergeCell ref="AI23:AI25"/>
@@ -4380,34 +4408,6 @@
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="W23:W25"/>
     <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AD23:AD25"/>
-    <mergeCell ref="AE23:AE25"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="Y23:Y25"/>
-    <mergeCell ref="Z23:Z25"/>
-    <mergeCell ref="AA23:AA25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AB23:AB25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4419,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -5193,21 +5193,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5218,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3C497C-FFF5-4ECC-94F6-035B41C4CABA}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
+++ b/Documents/ТЗ/ТЗ остаток идс 22.05.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F2439-B3E4-41CE-BF21-921D7CB1F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A651D110-9333-439B-8C5E-628344707766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Остаток ( ОБЩИЙ)" sheetId="4" r:id="rId1"/>
@@ -1459,6 +1459,30 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,34 +1498,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3856,12 +3856,12 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="J21" s="48" t="s">
@@ -3872,163 +3872,163 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="106" t="s">
+      <c r="I23" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="106" t="s">
+      <c r="J23" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="106" t="s">
+      <c r="K23" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="108" t="s">
+      <c r="L23" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="108" t="s">
+      <c r="M23" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="108" t="s">
+      <c r="O23" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="P23" s="108" t="s">
+      <c r="P23" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="109" t="s">
+      <c r="Q23" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="109" t="s">
+      <c r="R23" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="109" t="s">
+      <c r="S23" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="109" t="s">
+      <c r="T23" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="110" t="s">
+      <c r="U23" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="110" t="s">
+      <c r="V23" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="W23" s="110" t="s">
+      <c r="W23" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="113" t="s">
+      <c r="X23" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="Y23" s="113" t="s">
+      <c r="Y23" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="113" t="s">
+      <c r="Z23" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="AA23" s="106" t="s">
+      <c r="AA23" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="AB23" s="106" t="s">
+      <c r="AB23" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="AC23" s="113" t="s">
+      <c r="AC23" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="AD23" s="113" t="s">
+      <c r="AD23" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="AE23" s="106" t="s">
+      <c r="AE23" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="AF23" s="106" t="s">
+      <c r="AF23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="107" t="s">
+      <c r="AG23" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="105" t="s">
+      <c r="AH23" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="AI23" s="105" t="s">
+      <c r="AI23" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="105" t="s">
+      <c r="AJ23" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="105" t="s">
+      <c r="AK23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="AL23" s="102"/>
+      <c r="AL23" s="110"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H24" s="114"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="105"/>
-      <c r="AI24" s="105"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="103"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="111"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H25" s="114"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="104"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="112"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
@@ -4047,17 +4047,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="111" t="s">
+      <c r="X26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-      <c r="AC26" s="111" t="s">
+      <c r="AC26" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="111"/>
+      <c r="AD26" s="105"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="55"/>
@@ -4106,14 +4106,14 @@
       </c>
     </row>
     <row r="29" spans="1:38" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
       <c r="AG29" s="56" t="s">
         <v>102</v>
       </c>
@@ -4127,41 +4127,41 @@
       <c r="F30" s="57"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="102" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="115"/>
+      <c r="E54" s="102"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="115"/>
+      <c r="E55" s="102"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="115"/>
+      <c r="E56" s="102"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="115"/>
+      <c r="E57" s="102"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="115"/>
+      <c r="E58" s="102"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="115"/>
+      <c r="E59" s="102"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="115"/>
+      <c r="E60" s="102"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="115"/>
+      <c r="E61" s="102"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="115" t="s">
+      <c r="E64" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="115"/>
+      <c r="E65" s="102"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -4170,7 +4170,7 @@
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="115" t="s">
+      <c r="E67" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="115"/>
+      <c r="E68" s="102"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
@@ -4196,12 +4196,12 @@
       <c r="D79" s="44"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="115" t="s">
+      <c r="E106" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="115"/>
+      <c r="E107" s="102"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
@@ -4232,7 +4232,7 @@
       <c r="D130" s="44"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="112" t="s">
+      <c r="E133" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F133" s="47" t="s">
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="112"/>
+      <c r="E134" s="101"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="112" t="s">
+      <c r="E136" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F136" s="47" t="s">
@@ -4251,14 +4251,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="112"/>
+      <c r="E137" s="101"/>
       <c r="F137" s="46"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F138" s="46"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="112" t="s">
+      <c r="E140" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F140" s="47" t="s">
@@ -4266,15 +4266,15 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="112"/>
+      <c r="E141" s="101"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="115" t="s">
+      <c r="E143" s="102" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="115"/>
+      <c r="E144" s="102"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
@@ -4283,7 +4283,7 @@
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
       <c r="D147" s="41"/>
-      <c r="E147" s="115" t="s">
+      <c r="E147" s="102" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="115"/>
+      <c r="E148" s="102"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
@@ -4364,18 +4364,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AL23:AL25"/>
+    <mergeCell ref="AI23:AI25"/>
+    <mergeCell ref="AJ23:AJ25"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AF23:AF25"/>
+    <mergeCell ref="AG23:AG25"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="AC23:AC25"/>
@@ -4392,22 +4396,18 @@
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="L23:L25"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AL23:AL25"/>
-    <mergeCell ref="AI23:AI25"/>
-    <mergeCell ref="AJ23:AJ25"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="AF23:AF25"/>
-    <mergeCell ref="AG23:AG25"/>
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5193,21 +5193,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5218,7 +5218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3C497C-FFF5-4ECC-94F6-035B41C4CABA}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6068,7 +6068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A81BA5-65AF-43A2-99F6-F44395002ABD}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6751,7 +6753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E298AA-06CE-4B53-BD8E-EA2E2EED3A13}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
